--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.68</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>75.89</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>87.84</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>74.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>74.89</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>82.93</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1748,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1827,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1843,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1859,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600158-中体产业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1084</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+      <c r="D6" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,226 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2077</t>
+          <t>0.2005</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1019</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1085,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.1355</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1113,188 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>37.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1027</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,7 +1081,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1615,26 +1121,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1643,36 +1149,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.47</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1395,226 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>005585</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2005</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1780,128 +1628,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.27</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>